--- a/solucionfuncional/PTP_Daniel_Ramirez_25102021.xlsx
+++ b/solucionfuncional/PTP_Daniel_Ramirez_25102021.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mogu\Desktop\Choucair\POM_25102021_Daniel_Ramirez\solucionfuncional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5744AB-1359-4821-B051-15C32158D545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B09C4B15-AA03-44BF-B141-1E6811BD428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{2BF9DCB1-8F38-4B35-9697-6A8E5F8770B5}"/>
+    <workbookView xWindow="22485" yWindow="-555" windowWidth="28800" windowHeight="11385" xr2:uid="{2BF9DCB1-8F38-4B35-9697-6A8E5F8770B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="a. Alcance" sheetId="1" r:id="rId1"/>
-    <sheet name="b. Estrategia" sheetId="2" r:id="rId2"/>
-    <sheet name="c. Escenarios" sheetId="3" r:id="rId3"/>
-    <sheet name="d. Estimación" sheetId="4" r:id="rId4"/>
-    <sheet name="e. Bugs" sheetId="5" r:id="rId5"/>
-    <sheet name="g. Riesgos" sheetId="6" r:id="rId6"/>
-    <sheet name="h. HU" sheetId="7" r:id="rId7"/>
+    <sheet name="Presentación" sheetId="8" r:id="rId1"/>
+    <sheet name="a. Alcance" sheetId="1" r:id="rId2"/>
+    <sheet name="b. Estrategia" sheetId="2" r:id="rId3"/>
+    <sheet name="c. Escenarios" sheetId="3" r:id="rId4"/>
+    <sheet name="d. Estimación" sheetId="4" r:id="rId5"/>
+    <sheet name="e. Bugs" sheetId="5" r:id="rId6"/>
+    <sheet name="g. Riesgos" sheetId="6" r:id="rId7"/>
+    <sheet name="h. HU" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="181">
   <si>
     <t>Alcance</t>
   </si>
@@ -79,9 +80,6 @@
   </si>
   <si>
     <t>Nota: La ejecución de las pruebas se realizará de forma manual y se automatizará solo la ruta crítica del proceso, el proceso de compra de un producto</t>
-  </si>
-  <si>
-    <t>Bugs</t>
   </si>
   <si>
     <t>Se realizarán pruebas funcionales para garantizar el cumplimiento de los requerimientos:</t>
@@ -410,37 +408,7 @@
     <t>Estimación de tiempo</t>
   </si>
   <si>
-    <t>Descipción</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Fecha de Inicio</t>
-  </si>
-  <si>
-    <t>Fecha fin</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>Elaboración del plan de pruebas</t>
-  </si>
-  <si>
-    <t>Líder de pruebas</t>
-  </si>
-  <si>
     <t>Diseño de escenarios y casos de prueba</t>
-  </si>
-  <si>
-    <t>Líder de pruebas, Analista de pruebas</t>
-  </si>
-  <si>
-    <t>Ejecución y entrega de resultados</t>
-  </si>
-  <si>
-    <t>Cierre y preparación de informe</t>
   </si>
   <si>
     <t>Id</t>
@@ -515,12 +483,211 @@
   <si>
     <t>Propondría realizar una validación de que el carrito de compras no esté vacío para evitar el bug que se genera donde permite realizar una orden de compra sin tener productos en el carrito de compras</t>
   </si>
+  <si>
+    <t>Paso a Paso</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Prueba SURA - Tienda Online Sauce</t>
+  </si>
+  <si>
+    <t>Información General</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Tipo de Proyecto</t>
+  </si>
+  <si>
+    <t>Triada</t>
+  </si>
+  <si>
+    <t>Línea de negocio</t>
+  </si>
+  <si>
+    <t>Aplicación</t>
+  </si>
+  <si>
+    <t>Nombre del proyecto</t>
+  </si>
+  <si>
+    <t>SWAGLABS</t>
+  </si>
+  <si>
+    <t>Proyecto Coporativo</t>
+  </si>
+  <si>
+    <t>Responsable del cliente</t>
+  </si>
+  <si>
+    <t>Líder del Pruebas</t>
+  </si>
+  <si>
+    <t>Responsable de Desarrollo</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Tienda Online</t>
+  </si>
+  <si>
+    <t>Tienda Sauce</t>
+  </si>
+  <si>
+    <t>Contexto del proyecto</t>
+  </si>
+  <si>
+    <t>SWAGLABS es una empresa que vende productos para la actividad física en bicicleta y la cual cuenta con una plataforma web en versión 1.0 donde ofrecen algunos de estos productos. Realizaron un despliegue de la plataforma sin realizar un proceso de pruebas que les permitiera identificar la calidad de la misma, lo que conlleva al mal funcionamiento de la misma.
+Con el fin de generar un proceso de mejora continua, la directora de mercadeo ha solicitado realizar un proceso de calidad en la plataforma lo que es el objeto principal de este documento, donde se pueda conocer de primera mano las oportunidades de mejora de la plataforma y el estado actual del funcionamiento de la misma, previo a un despliegue de una versión 2.0 que se encuentra en desarrollo al tiempo que el proceso de pruebas.</t>
+  </si>
+  <si>
+    <t>Directora de Mercadeo</t>
+  </si>
+  <si>
+    <t>Analista de Pruebas - Daniel Leonardo Ramirez Salazar</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>Smoke Test</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Planeación</t>
+  </si>
+  <si>
+    <t>Reunión de planeación con el equipo de pruebas</t>
+  </si>
+  <si>
+    <t>Esfuerzo total (Hrs)</t>
+  </si>
+  <si>
+    <t>Análisis de documentación de requisitos</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Documentación del plan de pruebas</t>
+  </si>
+  <si>
+    <t>Reunión de presentación del plan de pruebas y feedback</t>
+  </si>
+  <si>
+    <t>Ejecución</t>
+  </si>
+  <si>
+    <t>Implementación de los casos de prueba automatizados</t>
+  </si>
+  <si>
+    <t>Documentación final para la entrega a SWAGLABS</t>
+  </si>
+  <si>
+    <t>Cierre / Entrega</t>
+  </si>
+  <si>
+    <t>Reunión con el cliente para la entrega de los resultados</t>
+  </si>
+  <si>
+    <t>Mejora continua / Control</t>
+  </si>
+  <si>
+    <t>Gestión de versión 2.0 en producción</t>
+  </si>
+  <si>
+    <t>Esfuerzo Estimado</t>
+  </si>
+  <si>
+    <t>Factor de ajuste (35%)</t>
+  </si>
+  <si>
+    <t>Esfuerzo por etapa (Hrs)</t>
+  </si>
+  <si>
+    <t>Esfuerzo más probable (Hrs)</t>
+  </si>
+  <si>
+    <t>1. Se selecciona un producto para la compra
+2. Se da clic al botón "add to cart"
+3. Se da clic en el carrito de compras
+4. Se da clic en el botón de "Checkout"</t>
+  </si>
+  <si>
+    <t>Precondición</t>
+  </si>
+  <si>
+    <t>Tener un usuario con credenciales de acceso validas
+Realizar el inicio de sesión en la plataforma con el usuario "problem_user"</t>
+  </si>
+  <si>
+    <t>1. Se selecciona un producto para la compra
+2. Se da clic al botón "add to cart"
+3. Se da clic en el carrito de compras</t>
+  </si>
+  <si>
+    <t>1. Se selecciona un producto para la compra
+2. Se da clic al botón "add to cart"
+3. Se da clic en el carrito de compras
+4. Se valida que se haya agregado el producto al carrito de compras
+5. Se da clic en el botón de "Checkout"
+6. Se selecciona y se ingresa el nombre, el apellido y el código postal
+7. Se da clic en el botón "Continue"</t>
+  </si>
+  <si>
+    <t>1. Se selecciona cada uno de los productos para la compra
+2. Se da clic al botón "add to cart" a cada uno
+3. Se da clic en el carrito de compras</t>
+  </si>
+  <si>
+    <t>1. Se da clic en el combobox de filtrar.
+2. Se selecciona una opción de filtro "Ordenar de la A a la Z", "Mayor costo", Menor Costo"</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
+    <t>Nivel del riesgo</t>
+  </si>
+  <si>
+    <t>Plan de mitigación</t>
+  </si>
+  <si>
+    <t>Comunicación constante con el equipo de pruebas para reconocer las oportunidades de mejora y poder aplicarlas previo a la implermentación.</t>
+  </si>
+  <si>
+    <t>Contar con personal de respaldo para el apoyo a los procesos en cuanto sea necesario.</t>
+  </si>
+  <si>
+    <t>Realizar el proces de citación de todos los involucrados con el debido tiempo y proceso y así evitar ausencias que pueden ser de gran importancia para la toma de decisiones.</t>
+  </si>
+  <si>
+    <t>Reuniones de socialización, metodología SCRUM que permita conocer el estado de actual del proyecto, los avances y las siguientes tareas a realizar</t>
+  </si>
+  <si>
+    <t>Contar con una metodología de versionamiento que sea reconocida por todos los integrantes del equipo del proyecto y socializarla</t>
+  </si>
+  <si>
+    <t>Reportes de bugs estandarizados para que los desarrolladores puedan replicarlos y así facilitar la corrección de defectos en la plataforma, adicionalmente, contar con un plan de seguimiento a los bugs, establecer tiempos de respuesta para el cumplimiento de las actividades</t>
+  </si>
+  <si>
+    <t>Una adecuada estimación de cada una de las fases del proyecto.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,14 +732,65 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,18 +799,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -689,34 +919,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,7 +949,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -738,61 +961,360 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -807,27 +1329,85 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8995DEF6-9EC6-4CE8-97DD-9855987FF679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18440400" y="4276725"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E59512BB-963C-4C80-8AD0-9BFD01831228}" name="Tabla1" displayName="Tabla1" ref="A4:E8" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A4:E8" xr:uid="{E59512BB-963C-4C80-8AD0-9BFD01831228}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DFD2CC18-2159-49EB-BC93-486CEF206EA8}" name="Tabla2" displayName="Tabla2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="9">
+  <autoFilter ref="A1:E6" xr:uid="{DFD2CC18-2159-49EB-BC93-486CEF206EA8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9DE1F2AE-F043-46AA-B822-99AAF626E425}" name="Descipción" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{25626FFC-80DB-431C-AE72-26D28A2A7FD6}" name="Horas"/>
-    <tableColumn id="3" xr3:uid="{D6FACC70-C228-4660-B1DA-C97B81356B7B}" name="Fecha de Inicio" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{410D2A4A-8E0F-4A35-A14B-6563CA103697}" name="Fecha fin" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{BA486627-FEB2-4001-A276-5CD13CE654FF}" name="Responsable"/>
+    <tableColumn id="1" xr3:uid="{94360EEF-D539-415A-8636-77E43ADD0A7F}" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9674BFAE-E5D0-4881-BB99-5A20FE5B42F3}" name="Descripción del Bug" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{4D0F830E-3AA8-47EF-84CA-CFEB3860D54D}" name="Caso de prueba relacionado" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{767CF684-92A7-451B-A946-EB632C85F37E}" name="Paso a Paso" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C3D56679-EE9B-42CB-BEE9-15CF517C510B}" name="Precondición" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DFD2CC18-2159-49EB-BC93-486CEF206EA8}" name="Tabla2" displayName="Tabla2" ref="A3:C8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:C8" xr:uid="{DFD2CC18-2159-49EB-BC93-486CEF206EA8}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{94360EEF-D539-415A-8636-77E43ADD0A7F}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{9674BFAE-E5D0-4881-BB99-5A20FE5B42F3}" name="Descripción del Bug" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4D0F830E-3AA8-47EF-84CA-CFEB3860D54D}" name="Caso de prueba relacionado"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB89F19C-A6AF-48AE-B4C8-028849ABB62D}" name="Tabla3" displayName="Tabla3" ref="A2:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F9" xr:uid="{BB89F19C-A6AF-48AE-B4C8-028849ABB62D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6090955A-5332-48FE-A6FA-F88229758DEC}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2343A476-30BD-42B8-BB38-89BF22E6C804}" name="Descripción del riesgo" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{AA6A73FB-DE54-413F-A8A9-76224FFEB179}" name="Impacto" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B2DB3D7F-6215-4B71-9020-6DA3909AD320}" name="Probabilidad" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3C3379ED-73DF-4E48-B222-BC40556A4409}" name="Nivel del riesgo" dataDxfId="1">
+      <calculatedColumnFormula>Tabla3[[#This Row],[Impacto]]*Tabla3[[#This Row],[Probabilidad]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{45E06B1B-857E-4B9D-9009-6BA588EF314B}" name="Plan de mitigación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1129,11 +1709,397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740E7639-CA69-41D4-B256-561E328237A6}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A15:H16"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A17:H30"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC8D5F5-9BF4-4DE5-A0E9-70C2CEF67CBF}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,63 +2107,66 @@
     <col min="1" max="1" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
+      <c r="A5" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="A6" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
+      <c r="A8" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
+      <c r="A9" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1207,12 +2176,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4CA83D-8B3A-4D98-AE26-A105D1F2957D}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,66 +2189,62 @@
     <col min="1" max="1" width="75.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:1" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1287,12 +2252,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8928DFA5-F1A6-41CD-865C-782995DA454D}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView topLeftCell="C7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,395 +2271,636 @@
     <col min="9" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="F3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="11" t="s">
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="13" customFormat="1" ht="290.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="I8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>53</v>
+      <c r="K8" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2712E7E7-9F62-4A04-8186-87C348CC772D}">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
+        <f>SUM(C4:D5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="35">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="35">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35">
+        <f>SUM(C6:D8)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C7" s="35">
+        <v>9</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="35">
+        <v>5</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="35">
+        <v>18</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35">
+        <f>SUM(C9:D10)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="35">
+        <v>9</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="35">
+        <v>4</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="34">
+        <f>C11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="35">
+        <v>2</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="34">
+        <f>C12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="37">
+        <f>SUM(E4:E12)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="37">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A8926-33A8-4816-A37D-49FFE2582EFC}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B1" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C1" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D1" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B2" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" s="16">
-        <v>44494</v>
-      </c>
-      <c r="D5" s="16">
-        <v>44494</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="B5" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6" s="16">
-        <v>44495</v>
-      </c>
-      <c r="D6" s="16">
-        <v>44496</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7" s="16">
-        <v>44496</v>
-      </c>
-      <c r="D7" s="16">
-        <v>44498</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16">
-        <v>44498</v>
-      </c>
-      <c r="D8" s="16">
-        <v>44498</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
+      <c r="C6" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1705,89 +2911,189 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A8926-33A8-4816-A37D-49FFE2582EFC}">
-  <dimension ref="A1:C8"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1BF507-7145-4FD8-8E0D-3371E66CEF49}">
+  <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="86.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
+      <c r="D2" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="43">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52">
+        <f>Tabla3[[#This Row],[Impacto]]*Tabla3[[#This Row],[Probabilidad]]</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="43">
+        <v>3</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52">
+        <f>Tabla3[[#This Row],[Impacto]]*Tabla3[[#This Row],[Probabilidad]]</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="43">
+        <v>2</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52">
+        <f>Tabla3[[#This Row],[Impacto]]*Tabla3[[#This Row],[Probabilidad]]</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="43">
+        <v>3</v>
+      </c>
+      <c r="D6" s="43">
+        <v>2</v>
+      </c>
+      <c r="E6" s="54">
+        <f>Tabla3[[#This Row],[Impacto]]*Tabla3[[#This Row],[Probabilidad]]</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="43">
+        <v>3</v>
+      </c>
+      <c r="D7" s="43">
+        <v>1</v>
+      </c>
+      <c r="E7" s="53">
+        <f>Tabla3[[#This Row],[Impacto]]*Tabla3[[#This Row],[Probabilidad]]</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="43">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43">
+        <v>2</v>
+      </c>
+      <c r="E8" s="54">
+        <f>Tabla3[[#This Row],[Impacto]]*Tabla3[[#This Row],[Probabilidad]]</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="43">
+        <v>2</v>
+      </c>
+      <c r="D9" s="43">
+        <v>2</v>
+      </c>
+      <c r="E9" s="54">
+        <f>Tabla3[[#This Row],[Impacto]]*Tabla3[[#This Row],[Probabilidad]]</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1798,142 +3104,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1BF507-7145-4FD8-8E0D-3371E66CEF49}">
-  <dimension ref="A2:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7692E8-7959-4B59-B778-EC64AD69DBE9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="C1" s="49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>130</v>
+      <c r="C3" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
